--- a/methylation/data/methylation level across birthmonth/summary_table - all tails.xlsx
+++ b/methylation/data/methylation level across birthmonth/summary_table - all tails.xlsx
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1110</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>623</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
@@ -398,7 +398,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>398</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
